--- a/image/healthcareservice.xlsx
+++ b/image/healthcareservice.xlsx
@@ -1048,44 +1048,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.06640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.01171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="69.5234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/healthcareservice.xlsx
+++ b/image/healthcareservice.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="287">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -496,10 +496,6 @@
   </si>
   <si>
     <t>HealthcareService.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Description of service as presented to a consumer while searching</t>
@@ -1048,44 +1044,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.30859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.30859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.01171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.5234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2949,13 +2945,13 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3021,10 +3017,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3032,7 +3028,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3055,16 +3051,16 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3114,7 +3110,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3129,7 +3125,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3140,7 +3136,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3163,13 +3159,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3220,7 +3216,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3235,7 +3231,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3246,7 +3242,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3269,13 +3265,13 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3326,7 +3322,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3341,7 +3337,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3352,7 +3348,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3375,16 +3371,16 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3434,7 +3430,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3449,7 +3445,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3460,7 +3456,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3486,13 +3482,13 @@
         <v>149</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3542,7 +3538,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3557,7 +3553,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3568,7 +3564,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3594,13 +3590,13 @@
         <v>127</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3629,10 +3625,10 @@
         <v>131</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>39</v>
@@ -3650,7 +3646,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3665,7 +3661,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3676,7 +3672,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3699,13 +3695,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3756,7 +3752,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3768,7 +3764,7 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>39</v>
@@ -3782,7 +3778,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3805,13 +3801,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3862,7 +3858,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3877,7 +3873,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3888,7 +3884,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3917,7 +3913,7 @@
         <v>94</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>96</v>
@@ -3970,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3985,7 +3981,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -3996,11 +3992,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4022,10 +4018,10 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -4080,7 +4076,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4106,7 +4102,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4132,10 +4128,10 @@
         <v>127</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4165,7 +4161,7 @@
         <v>131</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>39</v>
@@ -4186,7 +4182,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4201,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4212,7 +4208,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4235,16 +4231,16 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4294,7 +4290,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4309,7 +4305,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4320,7 +4316,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4346,13 +4342,13 @@
         <v>127</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4381,11 +4377,11 @@
         <v>131</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4417,7 +4413,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4428,7 +4424,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4454,13 +4450,13 @@
         <v>127</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4489,7 +4485,7 @@
         <v>131</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>39</v>
@@ -4510,7 +4506,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4525,7 +4521,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4536,7 +4532,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4562,13 +4558,13 @@
         <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4618,7 +4614,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4644,7 +4640,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4670,10 +4666,10 @@
         <v>127</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4703,11 +4699,11 @@
         <v>131</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4724,7 +4720,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4739,7 +4735,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4750,7 +4746,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4776,10 +4772,10 @@
         <v>111</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4830,7 +4826,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4845,7 +4841,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4856,7 +4852,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4879,16 +4875,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4938,7 +4934,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4950,10 +4946,10 @@
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -4964,7 +4960,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4987,13 +4983,13 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5044,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5059,7 +5055,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5070,7 +5066,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5099,7 +5095,7 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>96</v>
@@ -5152,7 +5148,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5167,7 +5163,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5178,11 +5174,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5204,10 +5200,10 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>96</v>
@@ -5262,7 +5258,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5288,7 +5284,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5314,10 +5310,10 @@
         <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5344,14 +5340,14 @@
         <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5368,7 +5364,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5383,7 +5379,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5394,7 +5390,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5420,10 +5416,10 @@
         <v>111</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5474,7 +5470,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5489,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5500,7 +5496,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5523,16 +5519,16 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5582,7 +5578,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5597,7 +5593,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5631,16 +5627,16 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5690,7 +5686,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5705,7 +5701,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5716,7 +5712,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5739,13 +5735,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5796,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5808,10 +5804,10 @@
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5822,7 +5818,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5845,13 +5841,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5902,7 +5898,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -5917,7 +5913,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -5928,7 +5924,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5957,7 +5953,7 @@
         <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>96</v>
@@ -6010,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6025,7 +6021,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6036,11 +6032,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6062,10 +6058,10 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>96</v>
@@ -6120,7 +6116,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6146,7 +6142,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6169,13 +6165,13 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6226,7 +6222,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>48</v>
@@ -6241,7 +6237,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6252,7 +6248,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6275,13 +6271,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6332,7 +6328,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6347,7 +6343,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6358,7 +6354,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6381,13 +6377,13 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6438,7 +6434,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6453,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -6464,7 +6460,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6487,13 +6483,13 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6544,7 +6540,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6559,7 +6555,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
